--- a/Result/check1/2025-04-10.xlsx
+++ b/Result/check1/2025-04-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV45"/>
+  <dimension ref="A1:AV43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9908</t>
+          <t>8936</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>181.536</t>
+          <t>1435.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,114 +703,114 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>3963</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-1.62</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>30.4</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>734</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>51.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
@@ -823,82 +823,82 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-19173581.0</t>
+          <t>47701.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>大台北</t>
+          <t>國統</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>油電燃氣業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>16.44</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>16.99%</t>
+          <t>27.19%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>6.70%</t>
+          <t>22.45%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>16446</t>
+          <t>13744</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>氣體70.48%、裝置17.76%、租金收入8.48%、通信1.91%、器具0.93%、勞務0.44% (2024年)</t>
+          <t>公共工程71.12%、管件16.06%、水處理操作維護4.87%、水處理工程承攬-服務特許權4.17%、服務特許權利息3.70%、其他0.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>大台北-油電燃氣業-上市</t>
+          <t>國統-其他-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>其他平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>27.25</t>
+          <t>25.37</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 油電燃氣 - 天然瓦斯供應</t>
+          <t>** 鋼鐵 - 製管** 建材營造 - 營造業</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8936</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1435.0</t>
+          <t>3596.868</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-2.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>78</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>35779</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.62</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,92 +1055,92 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>47701.0</t>
+          <t>-353675718.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>國統</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>37.52</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>27.19%</t>
+          <t>23.89%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>22.45%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>13545</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>公共工程71.12%、管件16.06%、水處理操作維護4.87%、水處理工程承攬-服務特許權4.17%、服務特許權利息3.70%、其他0.08% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>國統-其他-上櫃</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>25.37</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 鋼鐵 - 製管** 建材營造 - 營造業</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3596.868</t>
+          <t>4725.862</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>31646</t>
+          <t>12736</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-353675718.0</t>
+          <t>-342174635.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>寶一</t>
+          <t>陞泰</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,47 +1342,47 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>37.58</t>
+          <t>29.68</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>23.89%</t>
+          <t>15.01%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>31.24</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>安全監控系統及電子材料100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>陞泰-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>6873</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4725.862</t>
+          <t>1242.792</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>19.64</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>193.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5742</t>
+          <t>515</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>-8.95</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-5.57</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,32 +1539,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-342174635.0</t>
+          <t>1087469705.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>泓德能源</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>35.21</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>31.84</t>
+          <t>19.13</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>15.01%</t>
+          <t>30.53%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>19.78%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>19.77</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>22945</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>安全監控系統及電子材料100.00% (2024年)</t>
+          <t>建造合同97.43%、勞務1.68%、售電及其他0.64%、商品銷售0.25% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>泓德能源-綠能環保-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>75.63</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠** 風力發電 - 風場開發、發電營運** 智慧電網 - 能源管理服務、系統整合服務、電力零售業</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>89</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>350308</t>
+          <t>328937</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>17.47</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>238</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>80371</t>
+          <t>19287</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>-9.81</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>38.38</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>228009</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7349</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>其他平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-4.45</t>
+          <t>-6.34</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>911</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>31.24</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>6455</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-11.58</t>
+          <t>-23.4</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>980</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-5.91</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>17.82</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>78.82</t>
+          <t>76.37</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10.22</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>995</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>16.61</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>107.89</t>
+          <t>101.03</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>4738</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>29.43</t>
+          <t>20.34</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>1159</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>39.88</t>
+          <t>35.33</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>596</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>-6.08</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -4121,17 +4121,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-4.85</t>
+          <t>-5.31</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>65</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>6124</t>
+          <t>5792</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>24.73</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>99.27</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>422590</t>
+          <t>420728</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>28.13</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>266143</t>
+          <t>264064</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-4.79</t>
+          <t>-6.49</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>310</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>19710</t>
+          <t>26832</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4625,12 +4625,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>13.62</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>351420</t>
+          <t>345809</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>183</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>10831</t>
+          <t>13155</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>16.05</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>556993</t>
+          <t>559218</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>61205.983</t>
+          <t>5270.722</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,17 +5059,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>49.65</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,32 +5089,32 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>7615</t>
+          <t>848</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5124,37 +5124,37 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-4.75</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2131703109.0</t>
+          <t>136934759.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>玉山金</t>
+          <t>中再保</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -5204,57 +5204,57 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>16.96</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.62%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>442284</t>
+          <t>20130</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>利息淨收益44.65%、手續費及佣金淨損益36.98%、透過損益按公允價值衡量之金12.54%、透過其他綜合損益按公允價值2.40%、兌換損益2.30%、其他利息以外淨收益1.18% (2024年)</t>
+          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、投資性不動產0.08%、手續費0.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>玉山金-金融保險-上市</t>
+          <t>中再保-金融保險-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>15.83</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2193.619</t>
+          <t>17869.694</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,17 +5301,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,72 +5331,72 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5421,17 +5421,17 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>27744112.0</t>
+          <t>242904252.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>第一保</t>
+          <t>遠東銀</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -5446,57 +5446,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>30.37%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>8.19%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>8357</t>
+          <t>52801</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
+          <t>利息淨收益46.05%、手續費淨收益23.45%、透過損益按公允價值衡量之金22.82%、外幣匯兌收益2.54%、其他利息以外淨收益2.32%、透過其他綜合損益按公允價值1.63%、採用權益法認列之關聯企業利1.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>第一保-金融保險-上市</t>
+          <t>遠東銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5523,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17869.694</t>
+          <t>6460.465</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,17 +5543,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>46.80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,72 +5573,72 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.7</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>3,212</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>5382</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>-1.06</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5663,17 +5663,17 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>242904252.0</t>
+          <t>138445942.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>遠東銀</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -5688,17 +5688,17 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5713,32 +5713,32 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>54084</t>
+          <t>64599</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>利息淨收益46.05%、手續費淨收益23.45%、透過損益按公允價值衡量之金22.82%、外幣匯兌收益2.54%、其他利息以外淨收益2.32%、透過其他綜合損益按公允價值1.63%、採用權益法認列之關聯企業利1.19% (2024年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>遠東銀-金融保險-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>14.33</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 金融 - 金控業/銀行業/保險業、證券業</t>
         </is>
       </c>
     </row>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6460.465</t>
+          <t>14302.003</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,17 +5785,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>46.80</t>
+          <t>35.73</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>19.5</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,57 +5815,57 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>-4.28</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>190</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>10540</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -5875,24 +5875,24 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>0</t>
@@ -5905,17 +5905,17 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>138445942.0</t>
+          <t>437963773.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -5930,17 +5930,17 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5955,22 +5955,22 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>65814</t>
+          <t>103201</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業、證券業</t>
+          <t>** 金融 - 金控業/銀行業/保險業、證券業、租賃業</t>
         </is>
       </c>
     </row>
@@ -6007,17 +6007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>44611.392</t>
+          <t>612.835</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6027,17 +6027,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>44.79</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>104.5</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -6057,57 +6057,57 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>7964</t>
+          <t>829</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-3.37</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -6117,12 +6117,12 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -6147,22 +6147,22 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>755601362.0</t>
+          <t>-3399118.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>臺企銀</t>
+          <t>華固</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -6172,57 +6172,57 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>11.46</t>
+          <t>22.27</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135.15%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-249.96%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>43.77</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>129269</t>
+          <t>31058</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>利息淨收益56.03%、手續費淨收益19.22%、透過損益按公允價值衡量之金18.42%、透過其他綜合損益按公允價值3.39%、證券經紀1.53%、兌換損益0.98%、其他利息以外淨收益0.37%、資產減損迴轉利益(減損損失)0.07% (2024年)</t>
+          <t>建屋銷售99.55%、租賃0.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>臺企銀-金融保險-上市</t>
+          <t>華固-建材營造-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>14.34</t>
+          <t>68.5</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業、證券業、租賃業</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -6249,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2504</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14302.003</t>
+          <t>1628.968</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,17 +6269,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>35.73</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>19.5</t>
+          <t>38.75</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6299,72 +6299,72 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>2608</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6389,22 +6389,22 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>437963773.0</t>
+          <t>-293212945.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>國產</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6414,57 +6414,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.90%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.06%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>43.77</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>105408</t>
+          <t>45076</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>商品銷售95.08%、其他4.57%、租賃0.35% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>國產-建材營造-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業、證券業、租賃業</t>
+          <t>** 水泥 - 預拌混凝土** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1447.538</t>
+          <t>3523.172</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>61.60</t>
+          <t>40.21</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>459.5</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,72 +6541,72 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>-3.96</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -6631,22 +6631,22 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>277152421.0</t>
+          <t>1186587050.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>八方雲集</t>
+          <t>漢唐</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6656,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>67.04</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>20.43</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>33.79%</t>
+          <t>20.67%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>16.86%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>110.71</t>
+          <t>35.18</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>12296</t>
+          <t>84239</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
+          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>八方雲集-觀光事業-上市</t>
+          <t>漢唐-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>53.62</t>
+          <t>78.08</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 食品 - 加工食品、餐飲連鎖</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>612.835</t>
+          <t>49755.593</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,114 +6753,114 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>43.85</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>27875</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>-3.35</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>104.5</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-2.45</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2147</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>-1.57</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>-3.37</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>0</t>
@@ -6873,22 +6873,22 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>-3399118.0</t>
+          <t>3688294342.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>華固</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>22.27</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>135.15%</t>
+          <t>30.38%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>-249.96%</t>
+          <t>19.80%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>134.67</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>31058</t>
+          <t>556335</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>建屋銷售99.55%、租賃0.45% (2024年)</t>
+          <t>晶圓95.49%、其他4.51% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>華固-建材營造-上市</t>
+          <t>聯電-半導體業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>68.5</t>
+          <t>30.09</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 半導體 - 晶圓製造</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1628.968</t>
+          <t>2226.621</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,27 +6995,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>38.75</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,72 +7025,72 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>589</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-4.99</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-4.06</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>195.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -7115,22 +7115,22 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>-293212945.0</t>
+          <t>557770058.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>國產</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>25.90%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>21.06%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>46138</t>
+          <t>11978</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>商品銷售95.08%、其他4.57%、租賃0.35% (2024年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>國產-建材營造-上市</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>22.71</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 水泥 - 預拌混凝土** 建材營造 - 建材原料</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3523.172</t>
+          <t>4720.107</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>40.21</t>
+          <t>20.68</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>459.5</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,72 +7267,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -7357,22 +7357,22 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>1186587050.0</t>
+          <t>57585176.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>漢唐</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>67.04</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>20.67%</t>
+          <t>-41.12%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>16.86%</t>
+          <t>-47.81%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>37.05</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>87288</t>
+          <t>19115</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
+          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>漢唐-其他電子業-上市</t>
+          <t>台船-航運業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
         </is>
       </c>
     </row>
@@ -7459,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49755.593</t>
+          <t>8790.705</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7479,17 +7479,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>20.05</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>43.85</t>
+          <t>48.85</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7509,72 +7509,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>16140</t>
+          <t>9060</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7599,22 +7599,22 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>3688294342.0</t>
+          <t>543331775.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>正新</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7624,57 +7624,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>20.97</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>30.38%</t>
+          <t>20.89%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>19.80%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>144.02</t>
+          <t>18.88</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>556335</t>
+          <t>167905</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>晶圓95.49%、其他4.51% (2024年)</t>
+          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>聯電-半導體業-上市</t>
+          <t>正新-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>30.09</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 半導體 - 晶圓製造</t>
+          <t>** 石化及塑橡膠 - 橡膠製品</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2226.621</t>
+          <t>1700.038</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>60.36</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>65.2</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,72 +7751,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>-5.84</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>-2.76</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-4.99</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-4.06</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>195.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -7841,22 +7841,22 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>557770058.0</t>
+          <t>-504703902.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>為升</t>
+          <t>東和鋼鐵</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7866,57 +7866,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>31.32%</t>
+          <t>14.21%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>34.99</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>12542</t>
+          <t>44981</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+          <t>鋼筋53.54%、型鋼22.88%、建造合同22.33%、其他1.25%、鋼胚0.01% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>為升-汽車工業-上市</t>
+          <t>東和鋼鐵-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>30.48</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務</t>
+          <t>** 鋼鐵 - 鋼胚、鋼筋</t>
         </is>
       </c>
     </row>
@@ -7943,17 +7943,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4720.107</t>
+          <t>4105.435</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7963,27 +7963,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7993,72 +7993,72 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>-4.72</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -8083,22 +8083,22 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>57585176.0</t>
+          <t>-195828800.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>潤隆</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -8108,57 +8108,57 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>-41.12%</t>
+          <t>28.85%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>-47.81%</t>
+          <t>-58.58%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>16.41</t>
+          <t>43.77</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>19753</t>
+          <t>30512</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+          <t>房地銷售99.45%、建造合同0.30%、其他0.25% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>台船-航運業-上市</t>
+          <t>潤隆-建材營造-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -8185,17 +8185,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8790.705</t>
+          <t>10757.929</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8205,17 +8205,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>48.85</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -8235,72 +8235,72 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5249</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -8315,32 +8315,32 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>543331775.0</t>
+          <t>-285894458.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>正新</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8350,57 +8350,57 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>35.48</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>20.89%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>45.66</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>160126</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>正新-橡膠工業-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>27.71</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -8427,17 +8427,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1700.038</t>
+          <t>3418.107</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8447,27 +8447,27 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>31.98</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8477,72 +8477,72 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-4.32</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>769</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>-1.13</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>-2.46</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8567,22 +8567,22 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>-504703902.0</t>
+          <t>226931702.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>東和鋼鐵</t>
+          <t>台肥</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>化學工業</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -8592,57 +8592,57 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>14.21%</t>
+          <t>15.29%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>35.66</t>
+          <t>55.38</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>45638</t>
+          <t>48167</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>鋼筋53.54%、型鋼22.88%、建造合同22.33%、其他1.25%、鋼胚0.01% (2024年)</t>
+          <t>肥料化工產品76.33%、租賃20.60%、其他3.07% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>東和鋼鐵-鋼鐵工業-上市</t>
+          <t>台肥-化學工業-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>化學工業右下</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>56.83</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 鋼鐵 - 鋼胚、鋼筋</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -8669,17 +8669,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4105.435</t>
+          <t>813.843</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8689,27 +8689,27 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>17.40</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -8719,72 +8719,72 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -8809,22 +8809,22 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>-195828800.0</t>
+          <t>-106650628.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>潤隆</t>
+          <t>億泰</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電器電纜</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -8834,57 +8834,57 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>28.85%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>-58.58%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>31157</t>
+          <t>4562</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>房地銷售99.45%、建造合同0.30%、其他0.25% (2024年)</t>
+          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>潤隆-建材營造-上市</t>
+          <t>億泰-電器電纜-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>建材營造右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -8911,17 +8911,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10757.929</t>
+          <t>6330.84</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8931,27 +8931,27 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>42.55</t>
+          <t>15.97</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8961,72 +8961,72 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>-5.46</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10355</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -9036,37 +9036,37 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>-285894458.0</t>
+          <t>1305621740.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>東元</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
@@ -9076,57 +9076,57 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>17.44</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>25.31%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>46.77</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>101807</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>東元-電機機械-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
         </is>
       </c>
     </row>
@@ -9153,17 +9153,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>813.843</t>
+          <t>15272.937</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9173,27 +9173,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -9203,37 +9203,37 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -9243,32 +9243,32 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-6.13</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -9293,22 +9293,22 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>-106650628.0</t>
+          <t>554506196.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>億泰</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>電器電纜</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -9318,57 +9318,57 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>16.98</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>14.91%</t>
+          <t>19.43%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>55.68</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>169954</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>億泰-電器電纜-上市</t>
+          <t>遠東新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>43.67</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 石化及塑橡膠 - 塑膠製品、PTA(對苯二甲酸)觸媒** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整、成衣及其它家居紡織類品** 建材營造 - 建設業、工程承攬</t>
         </is>
       </c>
     </row>
@@ -9395,17 +9395,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6330.84</t>
+          <t>1958.116</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9415,27 +9415,27 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -9445,72 +9445,72 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>5399</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-4.28</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -9535,22 +9535,22 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>1305621740.0</t>
+          <t>-30751741.0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>東元</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -9560,57 +9560,57 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>17.99</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>25.31%</t>
+          <t>34.51%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>19.30%</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>31.24</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>105015</t>
+          <t>75118</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
+          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>東元-電機機械-上市</t>
+          <t>東陽-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>46.68</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
+          <t>** 石化及塑橡膠 - 塑膠製品** 汽車 - 鈑金、引擎蓋、保險桿</t>
         </is>
       </c>
     </row>
@@ -9637,17 +9637,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15272.937</t>
+          <t>8024.239</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9657,27 +9657,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -9687,72 +9687,72 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>4721</t>
+          <t>8422</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>0.73</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-6.13</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -9777,22 +9777,22 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>554506196.0</t>
+          <t>300917569.0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>遠東新</t>
+          <t>南亞</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
@@ -9802,57 +9802,57 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>17.11</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>19.43%</t>
+          <t>6.61%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>-0.38%</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>56.13</t>
+          <t>81.67</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>171292</t>
+          <t>241493</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
+          <t>其他29.16%、印刷電路板(PCB)12.44%、銅箔基板(CCL)10.47%、聚酯粒8.92%、環氧樹脂8.30%、丙二酚(BPA)5.67%、乙二醇(EG)5.60%、長纖4.26%、可塑劑(DOP)3.38%、聚酯棉3.12%、硬管2.55%、硬布2.48%、軟布1.85%、工程及配電盤1.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>遠東新-紡織纖維-上市</t>
+          <t>南亞-塑膠工業-上市</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>塑膠工業右下</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>43.67</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、PTA(對苯二甲酸)觸媒** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整、成衣及其它家居紡織類品** 建材營造 - 建設業、工程承攬</t>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布、環氧樹脂、酚醛樹脂、銅箔、銅箔基板** 石化及塑橡膠 - 石化上游原料及相關鑽探設備、人造纖維** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整** 電機機械 - 電控元件、機械設備之沖壓零組件</t>
         </is>
       </c>
     </row>
@@ -9879,17 +9879,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1958.116</t>
+          <t>2233.733</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9899,27 +9899,27 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>29.96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -9929,37 +9929,37 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>632</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -9969,27 +9969,27 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -10024,17 +10024,17 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>-30751741.0</t>
+          <t>18775568.0</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>東陽</t>
+          <t>愛之味</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
@@ -10044,57 +10044,57 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>19.66</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>34.51%</t>
+          <t>28.10%</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>19.30%</t>
+          <t>-0.33%</t>
         </is>
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>42.82</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>76005</t>
+          <t>5637</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
+          <t>飲料38.61%、傳統產品20.36%、穀奶類20.29%、甜點14.50%、其他4.56%、油品1.28%、醫療照護0.41% (2024年)</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>東陽-汽車工業-上市</t>
+          <t>愛之味-食品工業-上市</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>46.68</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品** 汽車 - 鈑金、引擎蓋、保險桿</t>
+          <t>** 食品 - 冷凍、罐頭、脫水、醃漬食品</t>
         </is>
       </c>
     </row>
@@ -10121,17 +10121,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8024.239</t>
+          <t>32911.723</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -10141,17 +10141,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>-3.57</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>85.33</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -10171,72 +10171,72 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>-3.98</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>5047</t>
+          <t>20361</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -10261,22 +10261,22 @@
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>300917569.0</t>
+          <t>2883786836.0</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>南亞</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
@@ -10286,57 +10286,57 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>27.78</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>72.98</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>31.61%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>83.63</t>
+          <t>42.82</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>243080</t>
+          <t>428424</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>其他29.16%、印刷電路板(PCB)12.44%、銅箔基板(CCL)10.47%、聚酯粒8.92%、環氧樹脂8.30%、丙二酚(BPA)5.67%、乙二醇(EG)5.60%、長纖4.26%、可塑劑(DOP)3.38%、聚酯棉3.12%、硬管2.55%、硬布2.48%、軟布1.85%、工程及配電盤1.81% (2024年)</t>
+          <t>便利商店30.77%、食品及食糧27.49%、流通及物流27.10%、其他10.47%、包裝容器4.18% (2024年)</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>南亞-塑膠工業-上市</t>
+          <t>統一-食品工業-上市</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>塑膠工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>23.79</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布、環氧樹脂、酚醛樹脂、銅箔、銅箔基板** 石化及塑橡膠 - 石化上游原料及相關鑽探設備、人造纖維** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整** 電機機械 - 電控元件、機械設備之沖壓零組件</t>
+          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品、乳製品</t>
         </is>
       </c>
     </row>
@@ -10363,17 +10363,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2233.733</t>
+          <t>3283.375</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -10383,17 +10383,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>29.96</t>
+          <t>52.41</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -10413,72 +10413,72 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -10503,17 +10503,17 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>18775568.0</t>
+          <t>190724489.0</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>愛之味</t>
+          <t>大成</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -10528,57 +10528,57 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>31.51</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>19.83</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>28.10%</t>
+          <t>14.74%</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>5.74%</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>43.22</t>
+          <t>42.82</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>52523</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>飲料38.61%、傳統產品20.36%、穀奶類20.29%、甜點14.50%、其他4.56%、油品1.28%、醫療照護0.41% (2024年)</t>
+          <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>愛之味-食品工業-上市</t>
+          <t>大成-食品工業-上市</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>** 食品 - 冷凍、罐頭、脫水、醃漬食品</t>
+          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
         </is>
       </c>
     </row>
@@ -10605,17 +10605,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>32911.723</t>
+          <t>10223.66</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10625,114 +10625,114 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-3.57</t>
+          <t>-3.32</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-2.03</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>8271</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>-0.79</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>78.4</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>-4.67</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>8589</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>-0.80</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>-1.07</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB43" t="inlineStr">
         <is>
           <t>0</t>
@@ -10745,22 +10745,22 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>2883786836.0</t>
+          <t>316324068.0</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
@@ -10770,57 +10770,57 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>27.78</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>31.61%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>43.22</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>425583</t>
+          <t>156935</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>便利商店30.77%、食品及食糧27.49%、流通及物流27.10%、其他10.47%、包裝容器4.18% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>統一-食品工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>食品工業平</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr">
@@ -10834,490 +10834,6 @@
         </is>
       </c>
       <c r="AV43" t="inlineStr">
-        <is>
-          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品、乳製品</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3283.375</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-1.96</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>52.41</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>56.1</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>-1.24</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>190724489.0</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>大成</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>31.51</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>14.74%</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>5.74%</t>
-        </is>
-      </c>
-      <c r="AN44" t="inlineStr">
-        <is>
-          <t>43.22</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>52254</t>
-        </is>
-      </c>
-      <c r="AP44" t="inlineStr">
-        <is>
-          <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ44" t="inlineStr">
-        <is>
-          <t>大成-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>食品工業右上</t>
-        </is>
-      </c>
-      <c r="AS44" t="inlineStr">
-        <is>
-          <t>30.33</t>
-        </is>
-      </c>
-      <c r="AT44" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU44" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV44" t="inlineStr">
-        <is>
-          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>10223.66</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>-3.32</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>20.01</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>45.15</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>-1.46</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2606</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>316324068.0</t>
-        </is>
-      </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>12.26</t>
-        </is>
-      </c>
-      <c r="AL45" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN45" t="inlineStr">
-        <is>
-          <t>18.27</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>157822</t>
-        </is>
-      </c>
-      <c r="AP45" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS45" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT45" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU45" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV45" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>

--- a/Result/check1/2025-04-10.xlsx
+++ b/Result/check1/2025-04-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV41"/>
+  <dimension ref="A1:AV40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>139</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3151</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>16.91</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>68.18</t>
+          <t>70.15</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>14140</t>
+          <t>13793</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1101.0</t>
+          <t>3596.868</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>-2.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,72 +975,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-11.28</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>116</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>23585</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,92 +1055,92 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>93684.0</t>
+          <t>-353675718.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>北基</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>油電燃氣業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>41.14</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>23.89%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1.63%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>25.32</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>16693</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>油品57.08%、房地銷售33.22%、電力6.94%、其他2.75% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>北基-油電燃氣業-上櫃</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>15.46</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 油電燃氣 - 加油站</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3596.868</t>
+          <t>4725.862</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>134</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>33747</t>
+          <t>38017</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-353675718.0</t>
+          <t>-342174635.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>寶一</t>
+          <t>陞泰</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,47 +1342,47 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>37.88</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>23.89%</t>
+          <t>15.01%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>31.14</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>安全監控系統及電子材料100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>陞泰-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>6752</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4725.862</t>
+          <t>204.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>121.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>30.32</t>
+          <t>31.93</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>-5.70</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-2.99</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,92 +1539,92 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-342174635.0</t>
+          <t>-115099.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>叡揚</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>35.88</t>
+          <t>29.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>15.01%</t>
+          <t>56.16%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>20.33%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>6315</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>安全監控系統及電子材料100.00% (2024年)</t>
+          <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>叡揚-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6752</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>204.0</t>
+          <t>364.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>121.5</t>
+          <t>1765.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>17.91</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-5.70</t>
+          <t>-104.14</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-2.99</t>
+          <t>-95.52</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,82 +1791,82 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-115099.0</t>
+          <t>-1138675755.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>叡揚</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>14.21</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>24.1</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>56.16%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>20.33%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>叡揚-資訊服務業-上櫃</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
+          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>364.96</t>
+          <t>11063.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1765.0</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,72 +1943,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>51498</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-104.14</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-95.52</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,97 +2018,97 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-1138675755.0</t>
+          <t>5985189.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>47.47</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>346592</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -2190,12 +2190,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5306</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>34.49</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>21826</t>
+          <t>26505</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>25.64</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1719.795</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25.89</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>176.0</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,37 +2669,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-15.62</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2709,32 +2709,32 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2759,82 +2759,82 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>795751749.0</t>
+          <t>3005.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>駐龍</t>
+          <t>金耘國際</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>24.01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>47.42%</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>34.60%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>31.14</t>
+          <t>70.15</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>6825</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>商品銷售75.50%、加工品24.35%、其他0.15% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>駐龍-電機機械-上市</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>53.57</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4238.0</t>
+          <t>1719.795</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-7.99</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>25.89</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>82.6</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3001,82 +3001,82 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>212276.0</t>
+          <t>795751749.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>駐龍</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>24.83</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>47.42%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>34.60%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>101.55</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>4871</t>
+          <t>7059</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>商品銷售75.50%、加工品24.35%、其他0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>駐龍-電機機械-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>53.57</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2224.0</t>
+          <t>2437.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,17 +3123,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>86.45</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,72 +3153,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>25.28</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>676</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3233,32 +3233,32 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-125409.0</t>
+          <t>182931.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>東洋</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>37.66</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>51.57%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>20.47%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>70.67</t>
+          <t>78.23</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>18748</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>藥品及保健食品94.85%、其他5.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>東洋-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 製藥 - 原材料、中、西藥製劑、藥品代理銷售及通路</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1690.0</t>
+          <t>4238.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-7.99</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>82.6</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -3405,47 +3405,47 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>271.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,32 +3475,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>427650.0</t>
+          <t>212276.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>70.67</t>
+          <t>100.42</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>4993</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27084.097</t>
+          <t>2224.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,17 +3607,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>52.72</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,32 +3637,32 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-4.39</t>
+          <t>30.88</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>2439</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3672,37 +3672,37 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3712,97 +3712,97 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>4444157659.0</t>
+          <t>-125409.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>台灣大</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>40.72</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>19.29%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>9.74%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>424452</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>商品銷售66.11%、電信及加值服務30.49%、有線電視及寬頻服務2.77%、其他0.57%、其他營業收入0.06% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>台灣大-通信網路業-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>28.24</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 通信網路 - 電信服務業</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5541.394</t>
+          <t>1690.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>98.11</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>252.5</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,72 +3879,72 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>18.12</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>271.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3954,97 +3954,97 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>1684198765.0</t>
+          <t>427650.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>統一超</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>34.39%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>3.43%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>28.54</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>269262</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>統一超-貿易百貨-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>40.67</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>53850.323</t>
+          <t>27084.097</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-4.60</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>54.55</t>
+          <t>52.72</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>38.05</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,72 +4121,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-5.78</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9606</t>
+          <t>4425</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -4211,22 +4211,22 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2215957387.0</t>
+          <t>4444157659.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>台灣大</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4236,57 +4236,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.29%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.74%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>104.31</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>557735</t>
+          <t>418867</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>利息淨收益44.07%、公平價值變動之金融資產與金25.26%、手續費及佣金17.16%、透過其他綜合損益按公允價值3.99%、兌換損益3.87%、保險業務3.61%、其他利息以外淨收益1.63%、除列按攤銷後成本衡量金融資0.23%、權益法投資收益-關聯和合營公0.10%、資產減損迴轉利益(減損損失)0.05%、投資性不動產0.03% (2024年)</t>
+          <t>商品銷售66.11%、電信及加值服務30.49%、有線電視及寬頻服務2.77%、其他0.57%、其他營業收入0.06% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>兆豐金-金融保險-上市</t>
+          <t>台灣大-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>24.54</t>
+          <t>28.24</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 通信網路 - 電信服務業</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2193.619</t>
+          <t>5541.394</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,17 +4333,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>98.11</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>252.5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,72 +4363,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -4453,22 +4453,22 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>27744112.0</t>
+          <t>1684198765.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>第一保</t>
+          <t>統一超</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>82.86</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>30.37%</t>
+          <t>34.39%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>8.19%</t>
+          <t>3.43%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>28.54</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>8508</t>
+          <t>268742</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
+          <t>便利商店(含海外子公司)77.94%、日用百貨買賣7.53%、餐飲業5.11%、宅配貨運3.98%、加油站3.11%、其他1.52%、物流0.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>第一保-金融保險-上市</t>
+          <t>統一超-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>40.67</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5270.722</t>
+          <t>51060.96</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>46.25</t>
+          <t>76.80</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>26.1</t>
+          <t>26.25</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,84 +4605,84 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-5.21</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>156</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>14630</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-4.75</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-100.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
           <t>0</t>
@@ -4695,17 +4695,17 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>136934759.0</t>
+          <t>1626623909.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>中再保</t>
+          <t>第一金</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>12.62%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>8.97%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>20450</t>
+          <t>350017</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、投資性不動產0.08%、手續費0.08% (2024年)</t>
+          <t>利息淨收益43.31%、透過損益按公允價值衡量之金26.67%、手續費及佣金淨損益17.72%、保險業務5.09%、兌換損益4.90%、透過其他綜合損益按公允價值2.32%、投資性不動產0.75%、其他利息以外淨收益0.63%、權益法投資收益-關聯和合營公0.18% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>中再保-金融保險-上市</t>
+          <t>第一金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4797,17 +4797,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17869.694</t>
+          <t>53850.323</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4817,17 +4817,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-4.60</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>54.55</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>38.05</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4847,57 +4847,57 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-3.21</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>200</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2974</t>
+          <t>17500</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4937,17 +4937,17 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>242904252.0</t>
+          <t>2215957387.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>遠東銀</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4962,17 +4962,17 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>15.94</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,22 +4987,22 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>53229</t>
+          <t>553285</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>利息淨收益46.05%、手續費淨收益23.45%、透過損益按公允價值衡量之金22.82%、外幣匯兌收益2.54%、其他利息以外淨收益2.32%、透過其他綜合損益按公允價值1.63%、採用權益法認列之關聯企業利1.19% (2024年)</t>
+          <t>利息淨收益44.07%、公平價值變動之金融資產與金25.26%、手續費及佣金17.16%、透過其他綜合損益按公允價值3.99%、兌換損益3.87%、保險業務3.61%、其他利息以外淨收益1.63%、除列按攤銷後成本衡量金融資0.23%、權益法投資收益-關聯和合營公0.10%、資產減損迴轉利益(減損損失)0.05%、投資性不動產0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>遠東銀-金融保險-上市</t>
+          <t>兆豐金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>14.33</t>
+          <t>24.54</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6460.465</t>
+          <t>61205.983</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,17 +5059,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>46.80</t>
+          <t>49.65</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-3.73</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>17111</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>-2.15</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1445</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-1.55</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>-0.85</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>138445942.0</t>
+          <t>2131703109.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>玉山金</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -5204,17 +5204,17 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>13.09</t>
+          <t>17.06</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -5229,22 +5229,22 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>65206</t>
+          <t>444683</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>利息淨收益44.65%、手續費及佣金淨損益36.98%、透過損益按公允價值衡量之金12.54%、透過其他綜合損益按公允價值2.40%、兌換損益2.30%、其他利息以外淨收益1.18% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>玉山金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>15.83</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業、證券業</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44611.392</t>
+          <t>2193.619</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,17 +5301,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>44.79</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,22 +5331,22 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>6205</t>
+          <t>921</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -5356,47 +5356,47 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>-0.94</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5421,17 +5421,17 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>755601362.0</t>
+          <t>27744112.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>臺企銀</t>
+          <t>第一保</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -5446,57 +5446,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30.37%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.19%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>127435</t>
+          <t>8673</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>利息淨收益56.03%、手續費淨收益19.22%、透過損益按公允價值衡量之金18.42%、透過其他綜合損益按公允價值3.39%、證券經紀1.53%、兌換損益0.98%、其他利息以外淨收益0.37%、資產減損迴轉利益(減損損失)0.07% (2024年)</t>
+          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>臺企銀-金融保險-上市</t>
+          <t>第一保-金融保險-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>14.34</t>
+          <t>28.88</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業、證券業、租賃業</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14302.003</t>
+          <t>5270.722</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,17 +5543,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>35.73</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>19.5</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,37 +5573,37 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3453</t>
+          <t>594</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5613,32 +5613,32 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-4.75</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5663,17 +5663,17 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>437963773.0</t>
+          <t>136934759.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>中再保</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -5688,47 +5688,47 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>12.63</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.62%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>104580</t>
+          <t>20690</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、投資性不動產0.08%、手續費0.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>中再保-金融保險-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業、證券業、租賃業</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1447.538</t>
+          <t>17869.694</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,27 +5785,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>61.60</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,32 +5815,32 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>339</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-3.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5850,37 +5850,37 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -5905,22 +5905,22 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>277152421.0</t>
+          <t>242904252.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>八方雲集</t>
+          <t>遠東銀</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5930,57 +5930,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>19.82</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>33.79%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>111.16</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>11929</t>
+          <t>54511</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
+          <t>利息淨收益46.05%、手續費淨收益23.45%、透過損益按公允價值衡量之金22.82%、外幣匯兌收益2.54%、其他利息以外淨收益2.32%、透過其他綜合損益按公允價值1.63%、採用權益法認列之關聯企業利1.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>八方雲集-觀光事業-上市</t>
+          <t>遠東銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>53.62</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 食品 - 加工食品、餐飲連鎖</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -6007,17 +6007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>612.835</t>
+          <t>6460.465</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6027,17 +6027,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>46.80</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>104.5</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -6057,32 +6057,32 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>942</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6092,27 +6092,27 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -6147,22 +6147,22 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>-3399118.0</t>
+          <t>138445942.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>華固</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -6172,57 +6172,57 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>135.15%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>-249.96%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>30906</t>
+          <t>65814</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>建屋銷售99.55%、租賃0.45% (2024年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>華固-建材營造-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>68.5</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 金融 - 金控業/銀行業/保險業、證券業</t>
         </is>
       </c>
     </row>
@@ -6249,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1628.968</t>
+          <t>44611.392</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,17 +6269,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>44.79</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>38.75</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6299,72 +6299,72 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>146</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>11811</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6389,22 +6389,22 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>-293212945.0</t>
+          <t>755601362.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>國產</t>
+          <t>臺企銀</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6414,57 +6414,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>25.90%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>21.06%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>46669</t>
+          <t>127893</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>商品銷售95.08%、其他4.57%、租賃0.35% (2024年)</t>
+          <t>利息淨收益56.03%、手續費淨收益19.22%、透過損益按公允價值衡量之金18.42%、透過其他綜合損益按公允價值3.39%、證券經紀1.53%、兌換損益0.98%、其他利息以外淨收益0.37%、資產減損迴轉利益(減損損失)0.07% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>國產-建材營造-上市</t>
+          <t>臺企銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>22.71</t>
+          <t>14.34</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 水泥 - 預拌混凝土** 建材營造 - 建材原料</t>
+          <t>** 金融 - 金控業/銀行業/保險業、證券業、租賃業</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3523.172</t>
+          <t>14302.003</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40.21</t>
+          <t>35.73</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>459.5</t>
+          <t>19.5</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,172 +6541,172 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>77</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>-2.23</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>437963773.0</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>台中銀</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
           <t>5.88</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-3.15</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>-1.75</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>-2.21</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>1186587050.0</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>漢唐</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>67.04</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>20.67%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>16.86%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>36.68</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>87765</t>
+          <t>105132</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>漢唐-其他電子業-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 金融 - 金控業/銀行業/保險業、證券業、租賃業</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>49755.593</t>
+          <t>1447.538</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,27 +6753,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20.05</t>
+          <t>61.60</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>43.85</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6783,72 +6783,72 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1,103</t>
+          <t>321</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>42912</t>
+          <t>564</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-3.57</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -6873,22 +6873,22 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>3688294342.0</t>
+          <t>277152421.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>八方雲集</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>26.70%</t>
+          <t>33.79%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>16.91%</t>
+          <t>9.20%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>141.67</t>
+          <t>115.16</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>545033</t>
+          <t>12029</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>晶圓95.49%、其他4.51% (2024年)</t>
+          <t>連鎖式餐飲店及連鎖加盟業者99.74%、授權0.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>聯電-半導體業-上市</t>
+          <t>八方雲集-觀光事業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>53.62</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 半導體 - 晶圓製造</t>
+          <t>** 食品 - 加工食品、餐飲連鎖</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2504</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4720.107</t>
+          <t>1628.968</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,27 +6995,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>38.75</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,72 +7025,72 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>2073</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -7115,22 +7115,22 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>57585176.0</t>
+          <t>-293212945.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>國產</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>-41.12%</t>
+          <t>25.90%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>-47.81%</t>
+          <t>21.06%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>45.38</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>19231</t>
+          <t>46728</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+          <t>商品銷售95.08%、其他4.57%、租賃0.35% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>台船-航運業-上市</t>
+          <t>國產-建材營造-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+          <t>** 水泥 - 預拌混凝土** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8790.705</t>
+          <t>3523.172</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>40.21</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>48.85</t>
+          <t>459.5</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,57 +7267,57 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6668</t>
+          <t>797</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-1.75</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -7357,22 +7357,22 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>543331775.0</t>
+          <t>1186587050.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>正新</t>
+          <t>漢唐</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>67.04</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>13.84</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>20.89%</t>
+          <t>20.67%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>16.86%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>18.98</t>
+          <t>41.26</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>165636</t>
+          <t>86621</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
+          <t>工程99.46%、商品銷售0.30%、勞務及設計0.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>正新-橡膠工業-上市</t>
+          <t>漢唐-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>27.71</t>
+          <t>78.08</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -7459,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1700.038</t>
+          <t>49755.593</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7479,27 +7479,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>20.05</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>43.85</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7509,72 +7509,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-3.33</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>130</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>23063</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7599,22 +7599,22 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>-504703902.0</t>
+          <t>3688294342.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>東和鋼鐵</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7624,57 +7624,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>14.21%</t>
+          <t>26.70%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>16.91%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>35.68</t>
+          <t>146.15</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>46076</t>
+          <t>563870</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>鋼筋53.54%、型鋼22.88%、建造合同22.33%、其他1.25%、鋼胚0.01% (2024年)</t>
+          <t>晶圓95.49%、其他4.51% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>東和鋼鐵-鋼鐵工業-上市</t>
+          <t>聯電-半導體業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 鋼鐵 - 鋼胚、鋼筋</t>
+          <t>** 半導體 - 晶圓製造</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4105.435</t>
+          <t>4720.107</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17.40</t>
+          <t>20.68</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,72 +7751,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-1.90</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>-0.90</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>-0.51</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>-1.19</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7841,22 +7841,22 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>-195828800.0</t>
+          <t>57585176.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>潤隆</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7866,57 +7866,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>28.85%</t>
+          <t>-41.12%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>-58.58%</t>
+          <t>-47.81%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>16.34</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>31256</t>
+          <t>19579</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>房地銷售99.45%、建造合同0.30%、其他0.25% (2024年)</t>
+          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>潤隆-建材營造-上市</t>
+          <t>台船-航運業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>建材營造右下</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
         </is>
       </c>
     </row>
@@ -7993,17 +7993,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>2031</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8013,12 +8013,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t>35.48</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
@@ -8133,12 +8133,12 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>47.49</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -8235,17 +8235,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5006</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>4757</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -8477,17 +8477,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-6.24</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>31.14</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>101058</t>
+          <t>103732</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -8719,17 +8719,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>4348</t>
+          <t>2028</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>57.16</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>170221</t>
+          <t>173433</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -8961,17 +8961,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10457</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8981,12 +8981,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>17.57</t>
+          <t>17.43</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>18.59</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>76892</t>
+          <t>76301</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -9203,17 +9203,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>8491</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9223,12 +9223,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-2.80</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>72.26</t>
+          <t>72.5</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -9343,12 +9343,12 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>83.23</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>240700</t>
+          <t>241493</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -9395,17 +9395,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2233.733</t>
+          <t>32911.723</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9415,17 +9415,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>-3.57</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>29.96</t>
+          <t>85.33</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -9445,72 +9445,72 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>6911</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -9535,17 +9535,17 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>18775568.0</t>
+          <t>2883786836.0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>愛之味</t>
+          <t>統一</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -9560,57 +9560,57 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>27.78</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>28.10%</t>
+          <t>31.61%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>43.19</t>
+          <t>43.13</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>436379</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>飲料38.61%、傳統產品20.36%、穀奶類20.29%、甜點14.50%、其他4.56%、油品1.28%、醫療照護0.41% (2024年)</t>
+          <t>便利商店30.77%、食品及食糧27.49%、流通及物流27.10%、其他10.47%、包裝容器4.18% (2024年)</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>愛之味-食品工業-上市</t>
+          <t>統一-食品工業-上市</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>23.79</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>** 食品 - 冷凍、罐頭、脫水、醃漬食品</t>
+          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品、乳製品</t>
         </is>
       </c>
     </row>
@@ -9637,17 +9637,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>32911.723</t>
+          <t>3283.375</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9657,17 +9657,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-3.57</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>52.41</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -9687,72 +9687,72 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>12721</t>
+          <t>2183</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -9777,17 +9777,17 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>2883786836.0</t>
+          <t>190724489.0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>大成</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -9802,57 +9802,57 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>27.78</t>
+          <t>31.51</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>31.61%</t>
+          <t>14.74%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>5.74%</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>43.19</t>
+          <t>43.13</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>434674</t>
+          <t>54044</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>便利商店30.77%、食品及食糧27.49%、流通及物流27.10%、其他10.47%、包裝容器4.18% (2024年)</t>
+          <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>統一-食品工業-上市</t>
+          <t>大成-食品工業-上市</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>食品工業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品、乳製品</t>
+          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
         </is>
       </c>
     </row>
@@ -9879,17 +9879,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3283.375</t>
+          <t>10223.66</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9899,114 +9899,114 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-3.32</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>52.41</t>
+          <t>20.01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-1.12</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5508</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>56.1</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>3861</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>-1.24</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB40" t="inlineStr">
         <is>
           <t>0</t>
@@ -10019,22 +10019,22 @@
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>190724489.0</t>
+          <t>316324068.0</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>大成</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
@@ -10044,57 +10044,57 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>14.39</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>14.74%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>5.74%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>43.19</t>
+          <t>18.39</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>53686</t>
+          <t>158354</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>大成-食品工業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr">
@@ -10108,248 +10108,6 @@
         </is>
       </c>
       <c r="AV40" t="inlineStr">
-        <is>
-          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>10223.66</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-3.32</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>20.01</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>45.15</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>-1.57</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1,828</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>7069</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>-0.90</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>316324068.0</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>12.25</t>
-        </is>
-      </c>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN41" t="inlineStr">
-        <is>
-          <t>18.19</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>157645</t>
-        </is>
-      </c>
-      <c r="AP41" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT41" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV41" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>

--- a/Result/check1/2025-04-10.xlsx
+++ b/Result/check1/2025-04-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV40"/>
+  <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>16.68</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>70.15</t>
+          <t>71.04</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>13793</t>
+          <t>13942</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>157</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>23585</t>
+          <t>49185</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>41.14</t>
+          <t>41.21</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>32.32</t>
+          <t>33.92</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>4204</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>38017</t>
+          <t>19094</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>37.88</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>16.68</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3788</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>31.93</t>
+          <t>34.5</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>6827</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>29.07</t>
+          <t>30.21</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6315</t>
+          <t>6563</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>358671</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>25.64</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>276</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>51498</t>
+          <t>84019</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>-7.59</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>47.47</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>4936</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>226551</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>5321</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>933.0</t>
+          <t>127.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>17.69</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>34.49</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>26505</t>
+          <t>704</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-3.66</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-2.70</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2517,22 +2517,22 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>37848.0</t>
+          <t>-7974.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>凱衛</t>
+          <t>美而快</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>25.64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>49.86%</t>
+          <t>46.40%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>11.96%</t>
+          <t>5.96%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>131.22</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
+          <t>商品銷售91.68%、餐飲5.21%、運費,倉儲管理,佣金,勞務,租2.45%、利息,手續費,違約金,其他0.65% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>凱衛-資訊服務業-上櫃</t>
+          <t>美而快-數位雲端-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>數位雲端右下</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>14.53</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
+          <t>** 電子商務 - 自有產品(服務)銷售** 印刷電路板 - 硬板、軟板、IC載板製造</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>5201</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>933.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,37 +2669,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-15.62</t>
+          <t>36.79</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>71</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>33166</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2709,32 +2709,32 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2759,22 +2759,22 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>3005.0</t>
+          <t>37848.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>凱衛</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26.58</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>49.86%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>70.15</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>凱衛-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>其他右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1719.795</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>25.89</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>176.0</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,37 +2911,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>-19.84</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>612</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2951,32 +2951,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -3001,82 +3001,82 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>795751749.0</t>
+          <t>3005.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>駐龍</t>
+          <t>金耘國際</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>47.42%</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>34.60%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>32.32</t>
+          <t>71.04</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>7059</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>商品銷售75.50%、加工品24.35%、其他0.15% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>駐龍-電機機械-上市</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>53.57</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2437.0</t>
+          <t>1719.795</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>86.45</t>
+          <t>25.89</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,72 +3153,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>-2.51</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -3243,82 +3243,82 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>182931.0</t>
+          <t>795751749.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>東洋</t>
+          <t>駐龍</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>51.57%</t>
+          <t>47.42%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>20.47%</t>
+          <t>34.60%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>78.23</t>
+          <t>33.92</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>18748</t>
+          <t>6981</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>藥品及保健食品94.85%、其他5.15% (2024年)</t>
+          <t>商品銷售75.50%、加工品24.35%、其他0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>東洋-生技醫療業-上櫃</t>
+          <t>駐龍-電機機械-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>53.57</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 製藥 - 原材料、中、西藥製劑、藥品代理銷售及通路</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12.13</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>17.13</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>100.42</t>
+          <t>100.83</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4993</t>
+          <t>5041</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>30.88</t>
+          <t>35.62</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2439</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>40.72</t>
+          <t>43.71</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>18.12</t>
+          <t>23.65</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>2190</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -4121,17 +4121,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-5.78</t>
+          <t>-5.31</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>5476</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>24.73</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>104.31</t>
+          <t>107.71</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>418867</t>
+          <t>420728</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>776</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>23.38</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>28.54</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>268742</t>
+          <t>269782</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-5.21</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>286</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>14630</t>
+          <t>23528</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>-100.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>350017</t>
+          <t>353524</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>199</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>17500</t>
+          <t>13844</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>15.94</t>
+          <t>16.03</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>553285</t>
+          <t>556252</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5094,12 +5094,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>255</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>17111</t>
+          <t>21888</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -5331,17 +5331,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>900</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>8673</t>
+          <t>8839</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>20690</t>
+          <t>21090</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5815,17 +5815,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>4684</t>
+          <t>8424</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>54511</t>
+          <t>55153</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -6057,17 +6057,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1620</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>13.41</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>65814</t>
+          <t>66826</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>69</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>11811</t>
+          <t>14270</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -6439,12 +6439,12 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>127893</t>
+          <t>129269</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
@@ -6541,17 +6541,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>162</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>7068</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>105132</t>
+          <t>107616</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>623</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -6838,14 +6838,14 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
       <c r="Y27" t="inlineStr">
         <is>
           <t>25.0</t>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
@@ -6923,12 +6923,12 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>115.16</t>
+          <t>116.75</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>12029</t>
+          <t>12229</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
@@ -7025,17 +7025,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2073</t>
+          <t>2117</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
@@ -7165,12 +7165,12 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>45.38</t>
+          <t>45.83</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>46728</t>
+          <t>47200</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -7267,17 +7267,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
@@ -7407,12 +7407,12 @@
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>41.26</t>
+          <t>43.41</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>86621</t>
+          <t>88051</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -7509,17 +7509,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>801</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>23063</t>
+          <t>28543</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>146.15</t>
+          <t>150.22</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>563870</t>
+          <t>564498</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4720.107</t>
+          <t>2226.621</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,27 +7721,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,72 +7751,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>873</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-4.99</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-4.06</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>195.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -7841,22 +7841,22 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>57585176.0</t>
+          <t>557770058.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>台船</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7866,57 +7866,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>-41.12%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>-47.81%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>19579</t>
+          <t>12866</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>台船-航運業-上市</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
       </c>
     </row>
@@ -7943,17 +7943,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10757.929</t>
+          <t>4720.107</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7963,102 +7963,102 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>-0.90</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
           <t>0.20</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>42.55</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>2031</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -8073,32 +8073,32 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>-285894458.0</t>
+          <t>57585176.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>台船</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -8108,57 +8108,57 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>35.48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>-41.12%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>-47.81%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>47.49</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>19579</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>造船68.32%、機械20.74%、船艦維修7.65%、其他2.83%、防蝕塗裝0.46% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>台船-航運業-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 其他 - 其他** 風力發電 - 風場營造</t>
         </is>
       </c>
     </row>
@@ -8185,17 +8185,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>813.843</t>
+          <t>8790.705</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8205,27 +8205,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>48.85</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -8235,37 +8235,37 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -8275,32 +8275,32 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -8325,22 +8325,22 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>-106650628.0</t>
+          <t>543331775.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>億泰</t>
+          <t>正新</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>電器電纜</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8350,57 +8350,57 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>19.98</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>14.91%</t>
+          <t>20.89%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>18.61</t>
+          <t>19.35</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>159964</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
+          <t>人力車輪胎,動力車輪胎,再生99.71%、其他0.29% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>億泰-電器電纜-上市</t>
+          <t>正新-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>27.71</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 石化及塑橡膠 - 橡膠製品</t>
         </is>
       </c>
     </row>
@@ -8427,17 +8427,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6330.84</t>
+          <t>1700.038</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8447,27 +8447,27 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15.97</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>65.2</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8477,57 +8477,57 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -8537,12 +8537,12 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -8567,22 +8567,22 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>1305621740.0</t>
+          <t>-504703902.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>東元</t>
+          <t>東和鋼鐵</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -8592,57 +8592,57 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>19.86</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>25.31%</t>
+          <t>13.54%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>9.21%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>32.32</t>
+          <t>36.55</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>103732</t>
+          <t>47975</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
+          <t>鋼筋53.54%、型鋼22.88%、建造合同22.33%、其他1.25%、鋼胚0.01% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>東元-電機機械-上市</t>
+          <t>東和鋼鐵-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>35.79</t>
+          <t>42.31</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
+          <t>** 鋼鐵 - 鋼胚、鋼筋</t>
         </is>
       </c>
     </row>
@@ -8669,17 +8669,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15272.937</t>
+          <t>4105.435</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8689,27 +8689,27 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -8729,62 +8729,62 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-6.13</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -8809,22 +8809,22 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>554506196.0</t>
+          <t>-195828800.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>遠東新</t>
+          <t>潤隆</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -8834,57 +8834,57 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>14.41</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>19.43%</t>
+          <t>28.85%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>-58.58%</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>57.16</t>
+          <t>45.83</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>173433</t>
+          <t>32596</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
+          <t>房地銷售99.45%、建造合同0.30%、其他0.25% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>遠東新-紡織纖維-上市</t>
+          <t>潤隆-建材營造-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>43.67</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、PTA(對苯二甲酸)觸媒** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整、成衣及其它家居紡織類品** 建材營造 - 建設業、工程承攬</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -8911,17 +8911,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1958.116</t>
+          <t>10757.929</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8931,17 +8931,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>42.55</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8961,32 +8961,32 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -8996,37 +8996,37 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -9041,32 +9041,32 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>-30751741.0</t>
+          <t>-285894458.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>東陽</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
@@ -9076,57 +9076,57 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>35.97</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>34.51%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>19.30%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>18.99</t>
+          <t>48.08</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>76301</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>東陽-汽車工業-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>46.68</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品** 汽車 - 鈑金、引擎蓋、保險桿</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -9153,17 +9153,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8024.239</t>
+          <t>3418.107</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9173,114 +9173,114 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>31.98</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>-0.60</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>29.5</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>3718</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>-0.68</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>-1.16</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB37" t="inlineStr">
         <is>
           <t>0</t>
@@ -9293,22 +9293,22 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>300917569.0</t>
+          <t>226931702.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>南亞</t>
+          <t>台肥</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>化學工業</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -9318,57 +9318,57 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>25.72</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>15.29%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>-0.38%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>58.75</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>241493</t>
+          <t>50666</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>其他29.16%、印刷電路板(PCB)12.44%、銅箔基板(CCL)10.47%、聚酯粒8.92%、環氧樹脂8.30%、丙二酚(BPA)5.67%、乙二醇(EG)5.60%、長纖4.26%、可塑劑(DOP)3.38%、聚酯棉3.12%、硬管2.55%、硬布2.48%、軟布1.85%、工程及配電盤1.81% (2024年)</t>
+          <t>肥料化工產品76.33%、租賃20.60%、其他3.07% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>南亞-塑膠工業-上市</t>
+          <t>台肥-化學工業-上市</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>塑膠工業右下</t>
+          <t>化學工業右下</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>56.83</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 玻璃纖維/玻纖布、環氧樹脂、酚醛樹脂、銅箔、銅箔基板** 石化及塑橡膠 - 石化上游原料及相關鑽探設備、人造纖維** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整** 電機機械 - 電控元件、機械設備之沖壓零組件</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -9395,17 +9395,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>32911.723</t>
+          <t>278.178</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9415,17 +9415,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-3.57</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -9445,72 +9445,72 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>6911</t>
+          <t>509</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -9535,22 +9535,22 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>2883786836.0</t>
+          <t>16567387.0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>統一</t>
+          <t>國化</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>化學工業</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -9560,57 +9560,57 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>27.78</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>31.61%</t>
+          <t>11.04%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>-44.27%</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>43.13</t>
+          <t>58.75</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>436379</t>
+          <t>8136</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>便利商店30.77%、食品及食糧27.49%、流通及物流27.10%、其他10.47%、包裝容器4.18% (2024年)</t>
+          <t>保險粉,鋅氧粉,吊白塊,鋅粉100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>統一-食品工業-上市</t>
+          <t>國化-化學工業-上市</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>食品工業平</t>
+          <t>化學工業右上</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>28.79</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品、乳製品</t>
+          <t>** 紡織 - 化學助劑</t>
         </is>
       </c>
     </row>
@@ -9637,17 +9637,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3283.375</t>
+          <t>813.843</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9657,114 +9657,114 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>52.41</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>3042</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>56.1</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2183</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>-1.24</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB39" t="inlineStr">
         <is>
           <t>0</t>
@@ -9777,22 +9777,22 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>190724489.0</t>
+          <t>-106650628.0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>大成</t>
+          <t>億泰</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>電器電纜</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
@@ -9802,57 +9802,57 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>14.74%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>5.74%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>43.13</t>
+          <t>19.03</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>54044</t>
+          <t>4805</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
+          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>大成-食品工業-上市</t>
+          <t>億泰-電器電纜-上市</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -9879,235 +9879,1929 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>1504</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6330.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-2.03</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>3381</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>-1.38</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>1305621740.0</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>東元</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>25.31%</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>105229</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>東元-電機機械-上市</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>電機機械平</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15272.937</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-3.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>4049</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-1.08</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>-6.13</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>554506196.0</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>遠東新</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>紡織纖維</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>19.43%</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>6.50%</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>173701</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>遠東新-紡織纖維-上市</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>紡織纖維平</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>43.67</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品、PTA(對苯二甲酸)觸媒** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整、成衣及其它家居紡織類品** 建材營造 - 建設業、工程承攬</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1958.116</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-1.12</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>6219</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>-30751741.0</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>東陽</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>34.51%</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>19.30%</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>79258</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>東陽-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>汽車工業右上</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>46.68</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品** 汽車 - 鈑金、引擎蓋、保險桿</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8024.239</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>7365</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>-1.16</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>300917569.0</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>南亞</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>6.61%</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>-0.38%</t>
+        </is>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>245459</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>其他29.16%、印刷電路板(PCB)12.44%、銅箔基板(CCL)10.47%、聚酯粒8.92%、環氧樹脂8.30%、丙二酚(BPA)5.67%、乙二醇(EG)5.60%、長纖4.26%、可塑劑(DOP)3.38%、聚酯棉3.12%、硬管2.55%、硬布2.48%、軟布1.85%、工程及配電盤1.81% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>南亞-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>43.7</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>** 印刷電路板 - 玻璃纖維/玻纖布、環氧樹脂、酚醛樹脂、銅箔、銅箔基板** 石化及塑橡膠 - 石化上游原料及相關鑽探設備、人造纖維** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)、人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)、染整** 電機機械 - 電控元件、機械設備之沖壓零組件</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2233.733</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11.6</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>-3.57</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>18775568.0</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>愛之味</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>28.10%</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>-0.33%</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>5539</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>飲料38.61%、傳統產品20.36%、穀奶類20.29%、甜點14.50%、其他4.56%、油品1.28%、醫療照護0.41% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>愛之味-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>** 食品 - 冷凍、罐頭、脫水、醃漬食品</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>32911.723</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-3.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-1.96</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>78.4</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>-2.22</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>2883786836.0</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>統一</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>31.61%</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>3.19%</t>
+        </is>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>435811</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>便利商店30.77%、食品及食糧27.49%、流通及物流27.10%、其他10.47%、包裝容器4.18% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>統一-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>食品工業平</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品、乳製品</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3283.375</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-1.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>52.41</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>-3.77</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>190724489.0</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>14.74%</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>5.74%</t>
+        </is>
+      </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>52165</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>大成-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>30.33</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>1102</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>10223.66</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>-3.32</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>-0.41</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>20.01</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>45.15</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>-1.12</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>5508</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-0.56</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>7443</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>-0.49</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>0.39</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AE47" t="inlineStr">
         <is>
           <t>316324068.0</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AG40" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH40" t="inlineStr">
+      <c r="AH47" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
         <is>
           <t>17.30%</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AM47" t="inlineStr">
         <is>
           <t>15.00%</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>18.39</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>158354</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>159241</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AR47" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AS47" t="inlineStr">
         <is>
           <t>51.13</t>
         </is>
       </c>
-      <c r="AT40" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU40" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV40" t="inlineStr">
+      <c r="AV47" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
